--- a/xlsx/美国各州_intext.xlsx
+++ b/xlsx/美国各州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="711">
   <si>
     <t>美国各州</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Commonwealth (U.S. state)</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国各州</t>
+    <t>政策_政策_美国_美国各州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6%E4%B8%8B%E7%9A%84%E5%B7%9E</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/State_governments_of_the_United_States</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%B0</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>按人口排列的美國城市列表</t>
+    <t>按人口排列的美国城市列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_towns_in_the_United_States</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E5%8D%80_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>鎮區 (美國)</t>
+    <t>镇区 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Consolidated_city-township</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
   </si>
   <si>
-    <t>國家紀念區</t>
+    <t>国家纪念区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88%E7%AE%A1%E7%90%86%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>公寓大廈管理委員會</t>
+    <t>公寓大厦管理委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%94%E5%90%88%E5%8D%8F%E5%AE%9A</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>非建制地區</t>
+    <t>非建制地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%95%87</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%85%A5%E5%A2%83%E8%87%AA%E7%94%B1</t>
@@ -293,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E9%87%8B</t>
   </si>
   <si>
-    <t>假釋</t>
+    <t>假释</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E8%AD%B7%E6%AC%8A</t>
   </si>
   <si>
-    <t>監護權</t>
+    <t>监护权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E5%AE%AA%E6%B3%95</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第十修正案</t>
+    <t>美国宪法第十修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%A6%E5%AF%9F</t>
   </si>
   <si>
-    <t>美國警察</t>
+    <t>美国警察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國醫療系統</t>
+    <t>美国医疗系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%B5%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>合併原則</t>
+    <t>合并原则</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/states%27_rights</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
@@ -401,9 +401,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
@@ -413,13 +410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
   </si>
   <si>
-    <t>違憲</t>
+    <t>违宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份列表</t>
+    <t>美国州份列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -737,13 +734,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%88%E5%B9%B6%E5%BB%BA%E5%88%B6%E9%A2%86%E5%9C%9F</t>
@@ -755,19 +752,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國殖民地</t>
+    <t>美国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
@@ -779,15 +773,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
   </si>
   <si>
@@ -797,13 +785,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -815,25 +800,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
@@ -845,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -857,31 +833,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
   </si>
   <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -899,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -911,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -923,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -935,25 +908,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -983,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -1001,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>安地卡及巴布達行政區劃</t>
+    <t>安地卡及巴布达行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -1127,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>尼加拉瓜行政區劃</t>
+    <t>尼加拉瓜行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -1235,25 +1208,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
+    <t>美国各州首府列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
@@ -1265,25 +1238,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
+    <t>美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
+    <t>美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -1295,37 +1268,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
+    <t>美国各州人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州時區列表</t>
+    <t>美国各州时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -1355,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1421,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -1433,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -1463,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -1475,9 +1448,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
@@ -1487,9 +1457,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
@@ -1499,7 +1466,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -1511,9 +1478,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
   </si>
   <si>
-    <t>美国国会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
@@ -1535,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -1565,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
@@ -1601,13 +1565,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -1619,13 +1583,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -1673,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -1685,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -1727,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -1757,13 +1721,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -1775,13 +1739,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -1793,13 +1757,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1835,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1847,13 +1811,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1865,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1883,13 +1847,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1913,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1979,15 +1943,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1997,7 +1958,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -2051,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -2087,7 +2048,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -2105,7 +2066,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -2141,19 +2102,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -2165,7 +2126,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -4471,7 +4432,7 @@
         <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4497,10 +4458,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4526,10 +4487,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4555,10 +4516,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4584,10 +4545,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4613,10 +4574,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4642,10 +4603,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4671,10 +4632,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4700,10 +4661,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4729,10 +4690,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4758,10 +4719,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4787,10 +4748,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4816,10 +4777,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4845,10 +4806,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4874,10 +4835,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4903,10 +4864,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4932,10 +4893,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4961,10 +4922,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4990,10 +4951,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5019,10 +4980,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5048,10 +5009,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5077,10 +5038,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5106,10 +5067,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5135,10 +5096,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5164,10 +5125,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5193,10 +5154,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5222,10 +5183,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5251,10 +5212,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5280,10 +5241,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5309,10 +5270,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5338,10 +5299,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5367,10 +5328,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5396,10 +5357,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5425,10 +5386,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5454,10 +5415,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5483,10 +5444,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5512,10 +5473,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5541,10 +5502,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5570,10 +5531,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5599,10 +5560,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5628,10 +5589,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5657,10 +5618,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5686,10 +5647,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5715,10 +5676,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5744,10 +5705,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5773,10 +5734,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5802,10 +5763,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5831,10 +5792,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5860,10 +5821,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5889,10 +5850,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5918,10 +5879,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5947,10 +5908,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5976,10 +5937,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6005,10 +5966,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6034,10 +5995,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6063,10 +6024,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6092,10 +6053,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6121,10 +6082,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6150,10 +6111,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6179,10 +6140,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6208,10 +6169,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6237,10 +6198,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6266,10 +6227,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6295,10 +6256,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>134</v>
+      </c>
+      <c r="F130" t="s">
         <v>135</v>
-      </c>
-      <c r="F130" t="s">
-        <v>136</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6324,10 +6285,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6353,10 +6314,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>140</v>
+      </c>
+      <c r="F132" t="s">
         <v>141</v>
-      </c>
-      <c r="F132" t="s">
-        <v>142</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6382,10 +6343,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>142</v>
+      </c>
+      <c r="F133" t="s">
         <v>143</v>
-      </c>
-      <c r="F133" t="s">
-        <v>144</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6411,10 +6372,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6440,10 +6401,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6469,10 +6430,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>148</v>
+      </c>
+      <c r="F136" t="s">
         <v>149</v>
-      </c>
-      <c r="F136" t="s">
-        <v>150</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6498,10 +6459,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>150</v>
+      </c>
+      <c r="F137" t="s">
         <v>151</v>
-      </c>
-      <c r="F137" t="s">
-        <v>152</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -6527,10 +6488,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>152</v>
+      </c>
+      <c r="F138" t="s">
         <v>153</v>
-      </c>
-      <c r="F138" t="s">
-        <v>154</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6556,10 +6517,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>158</v>
+      </c>
+      <c r="F139" t="s">
         <v>159</v>
-      </c>
-      <c r="F139" t="s">
-        <v>160</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6585,10 +6546,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>160</v>
+      </c>
+      <c r="F140" t="s">
         <v>161</v>
-      </c>
-      <c r="F140" t="s">
-        <v>162</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6614,10 +6575,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>162</v>
+      </c>
+      <c r="F141" t="s">
         <v>163</v>
-      </c>
-      <c r="F141" t="s">
-        <v>164</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6643,10 +6604,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>156</v>
+      </c>
+      <c r="F142" t="s">
         <v>157</v>
-      </c>
-      <c r="F142" t="s">
-        <v>158</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6672,10 +6633,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6701,10 +6662,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>166</v>
+      </c>
+      <c r="F144" t="s">
         <v>167</v>
-      </c>
-      <c r="F144" t="s">
-        <v>168</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -6730,10 +6691,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>168</v>
+      </c>
+      <c r="F145" t="s">
         <v>169</v>
-      </c>
-      <c r="F145" t="s">
-        <v>170</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6759,10 +6720,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>170</v>
+      </c>
+      <c r="F146" t="s">
         <v>171</v>
-      </c>
-      <c r="F146" t="s">
-        <v>172</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6788,10 +6749,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>172</v>
+      </c>
+      <c r="F147" t="s">
         <v>173</v>
-      </c>
-      <c r="F147" t="s">
-        <v>174</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6817,10 +6778,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F148" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6846,10 +6807,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F149" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6875,10 +6836,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F150" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6904,10 +6865,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>180</v>
+      </c>
+      <c r="F151" t="s">
         <v>181</v>
-      </c>
-      <c r="F151" t="s">
-        <v>182</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -6933,10 +6894,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F152" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6962,10 +6923,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>184</v>
+      </c>
+      <c r="F153" t="s">
         <v>185</v>
-      </c>
-      <c r="F153" t="s">
-        <v>186</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6991,10 +6952,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F154" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7020,10 +6981,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>188</v>
+      </c>
+      <c r="F155" t="s">
         <v>189</v>
-      </c>
-      <c r="F155" t="s">
-        <v>190</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7049,10 +7010,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>190</v>
+      </c>
+      <c r="F156" t="s">
         <v>191</v>
-      </c>
-      <c r="F156" t="s">
-        <v>192</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7078,10 +7039,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>192</v>
+      </c>
+      <c r="F157" t="s">
         <v>193</v>
-      </c>
-      <c r="F157" t="s">
-        <v>194</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7107,10 +7068,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>194</v>
+      </c>
+      <c r="F158" t="s">
         <v>195</v>
-      </c>
-      <c r="F158" t="s">
-        <v>196</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7136,10 +7097,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>196</v>
+      </c>
+      <c r="F159" t="s">
         <v>197</v>
-      </c>
-      <c r="F159" t="s">
-        <v>198</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7165,10 +7126,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>198</v>
+      </c>
+      <c r="F160" t="s">
         <v>199</v>
-      </c>
-      <c r="F160" t="s">
-        <v>200</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7194,10 +7155,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F161" t="s">
         <v>201</v>
-      </c>
-      <c r="F161" t="s">
-        <v>202</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7223,10 +7184,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>202</v>
+      </c>
+      <c r="F162" t="s">
         <v>203</v>
-      </c>
-      <c r="F162" t="s">
-        <v>204</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7252,10 +7213,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>204</v>
+      </c>
+      <c r="F163" t="s">
         <v>205</v>
-      </c>
-      <c r="F163" t="s">
-        <v>206</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7281,10 +7242,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>206</v>
+      </c>
+      <c r="F164" t="s">
         <v>207</v>
-      </c>
-      <c r="F164" t="s">
-        <v>208</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7310,10 +7271,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>208</v>
+      </c>
+      <c r="F165" t="s">
         <v>209</v>
-      </c>
-      <c r="F165" t="s">
-        <v>210</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7339,10 +7300,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F166" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7368,10 +7329,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>212</v>
+      </c>
+      <c r="F167" t="s">
         <v>213</v>
-      </c>
-      <c r="F167" t="s">
-        <v>214</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7397,10 +7358,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>214</v>
+      </c>
+      <c r="F168" t="s">
         <v>215</v>
-      </c>
-      <c r="F168" t="s">
-        <v>216</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7426,10 +7387,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>216</v>
+      </c>
+      <c r="F169" t="s">
         <v>217</v>
-      </c>
-      <c r="F169" t="s">
-        <v>218</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7455,10 +7416,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F170" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7484,10 +7445,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>220</v>
+      </c>
+      <c r="F171" t="s">
         <v>221</v>
-      </c>
-      <c r="F171" t="s">
-        <v>222</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7513,10 +7474,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>222</v>
+      </c>
+      <c r="F172" t="s">
         <v>223</v>
-      </c>
-      <c r="F172" t="s">
-        <v>224</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7542,10 +7503,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>224</v>
+      </c>
+      <c r="F173" t="s">
         <v>225</v>
-      </c>
-      <c r="F173" t="s">
-        <v>226</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7571,10 +7532,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>226</v>
+      </c>
+      <c r="F174" t="s">
         <v>227</v>
-      </c>
-      <c r="F174" t="s">
-        <v>228</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7600,10 +7561,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F175" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7629,10 +7590,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F176" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7658,10 +7619,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>232</v>
+      </c>
+      <c r="F177" t="s">
         <v>233</v>
-      </c>
-      <c r="F177" t="s">
-        <v>234</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7687,10 +7648,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F178" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7716,10 +7677,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F179" t="s">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7745,10 +7706,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F180" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7774,10 +7735,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F181" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7803,10 +7764,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F182" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7832,10 +7793,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F183" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7861,10 +7822,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F184" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -7890,10 +7851,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F185" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7919,10 +7880,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F186" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7948,10 +7909,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F187" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7977,10 +7938,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F188" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8006,10 +7967,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F189" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8035,10 +7996,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F190" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8064,10 +8025,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F191" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8093,10 +8054,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F192" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8122,10 +8083,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F193" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8151,10 +8112,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F194" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8180,10 +8141,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F195" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8209,10 +8170,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F196" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8238,10 +8199,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F197" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8267,10 +8228,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F198" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8296,10 +8257,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F199" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8325,10 +8286,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F200" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8354,10 +8315,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F201" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8383,10 +8344,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F202" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8412,10 +8373,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F203" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8441,10 +8402,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F204" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8470,10 +8431,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F205" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8499,10 +8460,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F206" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8528,10 +8489,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F207" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8557,10 +8518,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F208" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8586,10 +8547,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F209" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8615,10 +8576,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F210" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8644,10 +8605,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F211" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8673,10 +8634,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F212" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8702,10 +8663,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F213" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8731,10 +8692,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F214" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8760,10 +8721,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F215" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8789,10 +8750,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F216" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8818,10 +8779,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F217" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8847,10 +8808,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F218" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8876,10 +8837,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F219" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8905,10 +8866,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F220" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8934,10 +8895,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F221" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8992,10 +8953,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F223" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -9021,10 +8982,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F224" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9050,10 +9011,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F225" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9079,10 +9040,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F226" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9108,10 +9069,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F227" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9137,10 +9098,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F228" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9166,10 +9127,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F229" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9195,10 +9156,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F230" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9224,10 +9185,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F231" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9253,10 +9214,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F232" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9282,10 +9243,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F233" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9311,10 +9272,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F234" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9340,10 +9301,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F235" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9369,10 +9330,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F236" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9398,10 +9359,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F237" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9427,10 +9388,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F238" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9456,10 +9417,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F239" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9485,10 +9446,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F240" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9514,10 +9475,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F241" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9543,10 +9504,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F242" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G242" t="n">
         <v>26</v>
@@ -9572,10 +9533,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F243" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9601,10 +9562,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F244" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -9630,10 +9591,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F245" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9659,10 +9620,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F246" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9688,10 +9649,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F247" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9717,10 +9678,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F248" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9746,10 +9707,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F249" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9775,10 +9736,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F250" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9804,10 +9765,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F251" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9833,10 +9794,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F252" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9862,10 +9823,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F253" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G253" t="n">
         <v>10</v>
@@ -9891,10 +9852,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F254" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -9920,10 +9881,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F255" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9949,10 +9910,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F256" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9978,10 +9939,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F257" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10007,10 +9968,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F258" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10036,10 +9997,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F259" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10065,10 +10026,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F260" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -10094,10 +10055,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F261" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10123,10 +10084,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F262" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10152,10 +10113,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F263" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10181,10 +10142,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F264" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10210,10 +10171,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F265" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10239,10 +10200,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F266" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10268,10 +10229,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F267" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10297,10 +10258,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F268" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10326,10 +10287,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F269" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10355,10 +10316,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F270" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10384,10 +10345,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F271" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10413,10 +10374,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F272" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10442,10 +10403,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F273" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10471,10 +10432,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F274" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10500,10 +10461,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F275" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10529,10 +10490,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F276" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10558,10 +10519,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F277" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10587,10 +10548,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F278" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10616,10 +10577,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F279" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10645,10 +10606,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F280" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10674,10 +10635,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F281" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10703,10 +10664,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F282" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10732,10 +10693,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F283" t="s">
-        <v>486</v>
+        <v>88</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10761,10 +10722,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F284" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10790,10 +10751,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F285" t="s">
-        <v>490</v>
+        <v>96</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10819,10 +10780,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F286" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10848,10 +10809,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F287" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10877,10 +10838,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F288" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10906,10 +10867,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F289" t="s">
-        <v>498</v>
+        <v>120</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -10935,10 +10896,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F290" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10964,10 +10925,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F291" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10993,10 +10954,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F292" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11022,10 +10983,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F293" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11051,10 +11012,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F294" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -11080,10 +11041,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F295" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11109,10 +11070,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F296" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11138,10 +11099,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F297" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11167,10 +11128,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F298" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11196,10 +11157,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>128</v>
+      </c>
+      <c r="F299" t="s">
         <v>129</v>
-      </c>
-      <c r="F299" t="s">
-        <v>130</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11225,10 +11186,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F300" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11254,10 +11215,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F301" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11283,10 +11244,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F302" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11312,10 +11273,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F303" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11341,10 +11302,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F304" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11370,10 +11331,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F305" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -11399,10 +11360,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F306" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11428,10 +11389,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F307" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11457,10 +11418,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F308" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11486,10 +11447,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F309" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11515,10 +11476,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F310" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11544,10 +11505,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F311" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11573,10 +11534,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F312" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11602,10 +11563,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F313" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11631,10 +11592,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F314" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11660,10 +11621,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F315" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -11689,10 +11650,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F316" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11718,10 +11679,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F317" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11747,10 +11708,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F318" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G318" t="n">
         <v>6</v>
@@ -11776,10 +11737,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F319" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -11805,10 +11766,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F320" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11863,10 +11824,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F322" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11892,10 +11853,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F323" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11921,10 +11882,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F324" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11950,10 +11911,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F325" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11979,10 +11940,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>240</v>
+      </c>
+      <c r="F326" t="s">
         <v>241</v>
-      </c>
-      <c r="F326" t="s">
-        <v>242</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12008,10 +11969,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F327" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12037,10 +11998,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F328" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12066,10 +12027,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F329" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12095,10 +12056,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F330" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12124,10 +12085,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F331" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G331" t="n">
         <v>4</v>
@@ -12153,10 +12114,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F332" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12182,10 +12143,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F333" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12211,10 +12172,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>238</v>
+      </c>
+      <c r="F334" t="s">
         <v>239</v>
-      </c>
-      <c r="F334" t="s">
-        <v>240</v>
       </c>
       <c r="G334" t="n">
         <v>5</v>
@@ -12240,10 +12201,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F335" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12269,10 +12230,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F336" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12298,10 +12259,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F337" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12327,10 +12288,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F338" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12356,10 +12317,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F339" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12385,10 +12346,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F340" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12414,10 +12375,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F341" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12443,10 +12404,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F342" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12472,10 +12433,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F343" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12501,10 +12462,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F344" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12530,10 +12491,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F345" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12559,10 +12520,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F346" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G346" t="n">
         <v>5</v>
@@ -12588,10 +12549,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F347" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12617,10 +12578,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F348" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12646,10 +12607,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F349" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12675,10 +12636,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F350" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12704,10 +12665,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F351" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12733,10 +12694,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F352" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12762,10 +12723,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F353" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12791,10 +12752,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F354" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12849,10 +12810,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F356" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12878,10 +12839,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F357" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12907,10 +12868,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F358" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12936,10 +12897,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F359" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12965,10 +12926,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F360" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12994,10 +12955,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F361" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13023,10 +12984,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F362" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G362" t="n">
         <v>3</v>
@@ -13052,10 +13013,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F363" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13110,10 +13071,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F365" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13139,10 +13100,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F366" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13168,10 +13129,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F367" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13197,10 +13158,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F368" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13226,10 +13187,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F369" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13255,10 +13216,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F370" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G370" t="n">
         <v>4</v>
@@ -13284,10 +13245,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F371" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G371" t="n">
         <v>3</v>
@@ -13313,10 +13274,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F372" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13342,10 +13303,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F373" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13371,10 +13332,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F374" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13400,10 +13361,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F375" t="s">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13429,10 +13390,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F376" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13458,10 +13419,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F377" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13487,10 +13448,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F378" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13516,10 +13477,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="F379" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13545,10 +13506,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F380" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13574,10 +13535,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F381" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13603,10 +13564,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F382" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13632,10 +13593,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F383" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13661,10 +13622,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F384" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13690,10 +13651,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F385" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13719,10 +13680,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F386" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13748,10 +13709,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F387" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13777,10 +13738,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="F388" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="G388" t="n">
         <v>4</v>
@@ -13806,10 +13767,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F389" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -13835,10 +13796,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F390" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -13864,10 +13825,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F391" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -13893,10 +13854,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="F392" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -13922,10 +13883,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F393" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -13951,10 +13912,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="F394" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -13980,10 +13941,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="F395" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14009,10 +13970,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="F396" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14038,10 +13999,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F397" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14067,10 +14028,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="F398" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14096,10 +14057,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="F399" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14125,10 +14086,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="F400" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14154,10 +14115,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="F401" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14183,10 +14144,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="F402" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14212,10 +14173,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="F403" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14241,10 +14202,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F404" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14270,10 +14231,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F405" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14299,10 +14260,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="F406" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14328,10 +14289,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="F407" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14357,10 +14318,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="F408" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="G408" t="n">
         <v>3</v>
@@ -14386,10 +14347,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="F409" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
